--- a/biology/Médecine/Tronc_intestinal/Tronc_intestinal.xlsx
+++ b/biology/Médecine/Tronc_intestinal/Tronc_intestinal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les troncs intestinaux sont des vaisseaux lymphatiques situés dans l'abdomen.
 Ils drainent par le biais des nœuds lymphatiques mésentériques la lymphe de l'estomac, de l'intestin, du pancréas, de la rate et de la partie inférieure et avant du foie.
